--- a/ExamplePositions.xlsx
+++ b/ExamplePositions.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ResearchWorkingDirectory\gitRepositories\networkAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DAA930-17F8-4AA1-B15A-A92E58B361C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>C1=CC2=C(C=C1)C1=CC=CC=C1C=C2</t>
   </si>
@@ -49,17 +55,20 @@
     <t>OC(=O)c1c(O)ccc2ccccc12</t>
   </si>
   <si>
+    <t>O=C(O)c1c(O)ccc2ccccc12</t>
+  </si>
+  <si>
     <t>Oc1ccc2ccccc2c1O</t>
   </si>
   <si>
-    <t>O=C(O)c1c(O)ccc2ccccc12</t>
+    <t>Oc2ccc1ccccc1c2O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +116,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +237,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +289,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="94.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,40 +513,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="C3">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1666666666666667</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="C4">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08333333333333333</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C5">
-        <v>-0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -476,10 +554,10 @@
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>-0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,51 +568,51 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C8">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4166666666666667</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C9">
-        <v>-0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5833333333333334</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C10">
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8333333333333333</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="C11">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -545,29 +623,41 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.7222222222222221</v>
       </c>
       <c r="C13">
-        <v>-0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.9444444444444444</v>
+        <v>0.94444444444444442</v>
       </c>
       <c r="C14">
         <v>-0.4</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.94443999999999995</v>
+      </c>
+      <c r="C15" s="4">
+        <v>-0.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>